--- a/DataGenerator/XLSXS/MonsterData.xlsx
+++ b/DataGenerator/XLSXS/MonsterData.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42CB32-C75C-4BAB-B219-EDD3BC04269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3270" yWindow="2453" windowWidth="18668" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SkillRange" sheetId="1" r:id="rId4"/>
+    <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -26,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>캐릭터 ID</t>
   </si>
@@ -82,29 +99,42 @@
     <t>잡귀</t>
   </si>
   <si>
-    <t>testLesser_Spirit</t>
-  </si>
-  <si>
-    <t>Lesser_Spirit</t>
-  </si>
-  <si>
-    <t>#튜토2적</t>
+    <t>Jerky</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JerkyIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -112,7 +142,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,47 +158,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -358,24 +391,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -406,11 +444,11 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -441,11 +479,11 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -476,9 +514,9 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0010001E7</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>30010001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -486,136 +524,125 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3">
-        <v>3.0020001E7</v>
+      <c r="F4" s="2">
+        <v>30020001</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>3.0010002E7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.0020002E7</v>
-      </c>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/MonsterData.xlsx
+++ b/DataGenerator/XLSXS/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42CB32-C75C-4BAB-B219-EDD3BC04269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF218A8-136C-479E-A241-683C7A82D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2453" windowWidth="18668" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="680" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>캐릭터 ID</t>
   </si>
@@ -93,18 +94,28 @@
     <t>string</t>
   </si>
   <si>
-    <t>#튜토1적</t>
-  </si>
-  <si>
-    <t>잡귀</t>
+    <t>#근거리 잡몹</t>
+  </si>
+  <si>
+    <t>아귀</t>
+  </si>
+  <si>
+    <t>testBaby</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>testJerky</t>
   </si>
   <si>
     <t>Jerky</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JerkyIcon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#원거리 잡몹</t>
+  </si>
+  <si>
+    <t>절규</t>
   </si>
 </sst>
 </file>
@@ -122,6 +133,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -132,9 +144,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -157,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,11 +178,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -182,7 +210,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -404,12 +437,12 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +477,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -479,7 +512,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -514,24 +547,24 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>30010001</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>30001001</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2">
-        <v>30020001</v>
+      <c r="F4" s="6">
+        <v>30002001</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -547,13 +580,25 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>30001002</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30002002</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -568,13 +613,13 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -586,7 +631,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -604,7 +649,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -622,7 +667,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>

--- a/DataGenerator/XLSXS/MonsterData.xlsx
+++ b/DataGenerator/XLSXS/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF218A8-136C-479E-A241-683C7A82D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C09A06-2205-4BC8-9513-0F0AF7605966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="680" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2510" yWindow="790" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>캐릭터 ID</t>
   </si>
@@ -116,13 +116,65 @@
   </si>
   <si>
     <t>절규</t>
+  </si>
+  <si>
+    <t>testScream</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>#서포트 뒷산</t>
+  </si>
+  <si>
+    <t>저퀴</t>
+  </si>
+  <si>
+    <t>#창귀</t>
+  </si>
+  <si>
+    <t>굴각</t>
+  </si>
+  <si>
+    <t>testGulGak</t>
+  </si>
+  <si>
+    <t>Gulgak</t>
+  </si>
+  <si>
+    <t>스킬 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;long&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30101001, 30101002]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30101003, 30101004]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30101005, 30101006]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30101007, 30101008]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -148,6 +200,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -197,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -214,6 +273,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -434,37 +499,48 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -476,30 +552,33 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -511,30 +590,33 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -546,8 +628,9 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>30001001</v>
       </c>
@@ -566,21 +649,24 @@
       <c r="F4" s="6">
         <v>30002001</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>30001002</v>
       </c>
@@ -591,16 +677,18 @@
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6">
         <v>30002002</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -608,20 +696,35 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>30001003</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
+        <v>30002003</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -629,27 +732,43 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>30001004</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6">
+        <v>30002004</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -657,17 +776,18 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -675,15 +795,16 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataGenerator/XLSXS/MonsterData.xlsx
+++ b/DataGenerator/XLSXS/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C09A06-2205-4BC8-9513-0F0AF7605966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC482DD-1192-4375-B00D-0381648AEB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2510" yWindow="790" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3555" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>캐릭터 ID</t>
   </si>
@@ -140,41 +140,13 @@
   </si>
   <si>
     <t>Gulgak</t>
-  </si>
-  <si>
-    <t>스킬 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;long&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30101001, 30101002]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30101003, 30101004]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30101005, 30101006]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30101007, 30101008]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -200,13 +172,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -256,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,12 +238,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,24 +458,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -535,12 +493,10 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -552,9 +508,8 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -573,12 +528,10 @@
       <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -590,9 +543,8 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -611,12 +563,10 @@
       <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -628,9 +578,8 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>30001001</v>
       </c>
@@ -649,24 +598,21 @@
       <c r="F4" s="6">
         <v>30002001</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>30001002</v>
       </c>
@@ -685,10 +631,8 @@
       <c r="F5" s="6">
         <v>30002002</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -696,13 +640,12 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>30001003</v>
       </c>
@@ -721,10 +664,8 @@
       <c r="F6" s="6">
         <v>30002003</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -732,10 +673,9 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>30001004</v>
       </c>
@@ -754,21 +694,18 @@
       <c r="F7" s="6">
         <v>30002004</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -776,18 +713,17 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -795,16 +731,15 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
